--- a/Datos Ascensores.xlsx
+++ b/Datos Ascensores.xlsx
@@ -16,6 +16,23 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Grupo A</t>
+  </si>
+  <si>
+    <t>Grupo B</t>
+  </si>
+  <si>
+    <t>Grupo C</t>
+  </si>
+  <si>
+    <t>Grupo D</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -69,7 +86,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -114,7 +131,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +166,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -331,12 +348,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Datos Ascensores.xlsx
+++ b/Datos Ascensores.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Grupo A</t>
   </si>
@@ -31,6 +31,39 @@
   </si>
   <si>
     <t>Grupo D</t>
+  </si>
+  <si>
+    <t>Grupos</t>
+  </si>
+  <si>
+    <t>Zona expresa</t>
+  </si>
+  <si>
+    <t>Pisos Servidos</t>
+  </si>
+  <si>
+    <t>Pisos no servidos</t>
+  </si>
+  <si>
+    <t>Número de Ascensores</t>
+  </si>
+  <si>
+    <t>Vel. Nominal</t>
+  </si>
+  <si>
+    <t>[T1]Tiempo Apertura y Cierre</t>
+  </si>
+  <si>
+    <t>[T2]Tiempo Entrada y Salida</t>
+  </si>
+  <si>
+    <t>Capacidad Nominal</t>
+  </si>
+  <si>
+    <t>Datos de Entrada</t>
+  </si>
+  <si>
+    <t>Datos de Salida</t>
   </si>
 </sst>
 </file>
@@ -66,8 +99,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -348,35 +384,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A8" sqref="A8:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="25.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A8:I8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Datos Ascensores.xlsx
+++ b/Datos Ascensores.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Grupo A</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Datos de Salida</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -387,7 +390,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:I8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,6 +450,30 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>22</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>22</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>3.15</v>
+      </c>
+      <c r="I3">
+        <v>2.2000000000000002</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">

--- a/Datos Ascensores.xlsx
+++ b/Datos Ascensores.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Grupo A</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>Datos de Entrada</t>
-  </si>
-  <si>
-    <t>Datos de Salida</t>
   </si>
   <si>
     <t>no</t>
@@ -390,7 +387,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>22</v>
@@ -491,9 +488,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
